--- a/update_data/data/bank_psbc/sale_2/营销对话.xlsx
+++ b/update_data/data/bank_psbc/sale_2/营销对话.xlsx
@@ -471,7 +471,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
